--- a/artfynd/A 35969-2025 artfynd.xlsx
+++ b/artfynd/A 35969-2025 artfynd.xlsx
@@ -2009,7 +2009,7 @@
         <v>127753535</v>
       </c>
       <c r="B15" t="n">
-        <v>91977</v>
+        <v>91981</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>

--- a/artfynd/A 35969-2025 artfynd.xlsx
+++ b/artfynd/A 35969-2025 artfynd.xlsx
@@ -2009,7 +2009,7 @@
         <v>127753535</v>
       </c>
       <c r="B15" t="n">
-        <v>91981</v>
+        <v>91982</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
